--- a/stafford raw.xlsx
+++ b/stafford raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/scro2377_ox_ac_uk/Documents/Explo/FIBS/FIBS/weedmodels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D0F91D3-1F58-B74C-9EE0-0069C97F0E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{B7A99EBC-E899-8241-81A5-27B6C96E3FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="840" windowWidth="27680" windowHeight="15360" xr2:uid="{C70026BC-2050-994F-826C-23F283BF6430}"/>
+    <workbookView xWindow="440" yWindow="500" windowWidth="33640" windowHeight="18920" xr2:uid="{C70026BC-2050-994F-826C-23F283BF6430}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="178">
   <si>
     <t>fibscodes</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>Taxa</t>
+  </si>
+  <si>
+    <t>taxon_codes</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -591,8 +594,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +625,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -636,6 +665,13 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,2578 +986,2588 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A495CC5-7669-B641-BFAE-3DDF2A6A657F}">
-  <dimension ref="A1:AU81"/>
+  <dimension ref="A1:AU82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="U34" sqref="U34:V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="43" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="B1" t="s">
         <v>176</v>
       </c>
       <c r="C1">
+        <v>11</v>
+      </c>
+      <c r="D1">
+        <v>115</v>
+      </c>
+      <c r="E1">
+        <v>118</v>
+      </c>
+      <c r="F1">
+        <v>203</v>
+      </c>
+      <c r="G1">
+        <v>204</v>
+      </c>
+      <c r="H1">
+        <v>205</v>
+      </c>
+      <c r="I1">
+        <v>221</v>
+      </c>
+      <c r="J1">
+        <v>405</v>
+      </c>
+      <c r="K1">
+        <v>406</v>
+      </c>
+      <c r="L1">
+        <v>412</v>
+      </c>
+      <c r="M1">
+        <v>1682</v>
+      </c>
+      <c r="N1">
+        <v>1839</v>
+      </c>
+      <c r="O1">
+        <v>1891</v>
+      </c>
+      <c r="P1">
+        <v>1929</v>
+      </c>
+      <c r="Q1">
+        <v>1985</v>
+      </c>
+      <c r="R1">
+        <v>1988</v>
+      </c>
+      <c r="S1">
+        <v>1990</v>
+      </c>
+      <c r="T1">
+        <v>2092</v>
+      </c>
+      <c r="U1">
+        <v>2134</v>
+      </c>
+      <c r="V1">
+        <v>2136</v>
+      </c>
+      <c r="W1">
+        <v>2140</v>
+      </c>
+      <c r="X1">
+        <v>2150</v>
+      </c>
+      <c r="Y1">
+        <v>2172</v>
+      </c>
+      <c r="Z1">
+        <v>2178</v>
+      </c>
+      <c r="AA1">
+        <v>2184</v>
+      </c>
+      <c r="AB1">
+        <v>2185</v>
+      </c>
+      <c r="AC1">
+        <v>2195</v>
+      </c>
+      <c r="AD1">
+        <v>2222</v>
+      </c>
+      <c r="AE1">
+        <v>2223</v>
+      </c>
+      <c r="AF1">
         <v>2228</v>
       </c>
-      <c r="D1">
+      <c r="AG1">
+        <v>2242</v>
+      </c>
+      <c r="AH1">
+        <v>2243</v>
+      </c>
+      <c r="AI1">
+        <v>2247</v>
+      </c>
+      <c r="AJ1">
+        <v>2267</v>
+      </c>
+      <c r="AK1">
+        <v>2322</v>
+      </c>
+      <c r="AL1">
         <v>2323</v>
       </c>
-      <c r="E1">
-        <v>2223</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="AM1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP1" t="s">
         <v>7</v>
       </c>
-      <c r="G1">
-        <v>2136</v>
-      </c>
-      <c r="H1">
-        <v>1682</v>
-      </c>
-      <c r="I1">
-        <v>2222</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>2134</v>
-      </c>
-      <c r="L1">
-        <v>2322</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1">
-        <v>2178</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="AQ1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS1" t="s">
         <v>10</v>
       </c>
-      <c r="P1">
-        <v>2247</v>
-      </c>
-      <c r="Q1">
-        <v>2150</v>
-      </c>
-      <c r="R1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1">
-        <v>1988</v>
-      </c>
-      <c r="T1">
-        <v>1990</v>
-      </c>
-      <c r="U1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1">
-        <v>2140</v>
-      </c>
-      <c r="W1">
-        <v>205</v>
-      </c>
-      <c r="X1">
-        <v>1891</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AT1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU1" t="s">
         <v>13</v>
       </c>
-      <c r="Z1">
-        <v>1929</v>
-      </c>
-      <c r="AA1">
-        <v>204</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1">
-        <v>2092</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1">
-        <v>405</v>
-      </c>
-      <c r="AF1">
-        <v>2184</v>
-      </c>
-      <c r="AG1">
-        <v>118</v>
-      </c>
-      <c r="AH1">
-        <v>1985</v>
-      </c>
-      <c r="AI1">
-        <v>221</v>
-      </c>
-      <c r="AJ1">
-        <v>2185</v>
-      </c>
-      <c r="AK1">
-        <v>2172</v>
-      </c>
-      <c r="AL1">
-        <v>11</v>
-      </c>
-      <c r="AM1">
-        <v>406</v>
-      </c>
-      <c r="AN1">
-        <v>203</v>
-      </c>
-      <c r="AO1">
-        <v>1839</v>
-      </c>
-      <c r="AP1">
-        <v>2267</v>
-      </c>
-      <c r="AQ1">
-        <v>2242</v>
-      </c>
-      <c r="AR1">
-        <v>412</v>
-      </c>
-      <c r="AS1">
-        <v>115</v>
-      </c>
-      <c r="AT1">
-        <v>2243</v>
-      </c>
-      <c r="AU1">
-        <v>2195</v>
-      </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2">
-        <v>115.38461538461539</v>
-      </c>
-      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="R2">
+        <v>360</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>24</v>
+      </c>
+      <c r="V2">
+        <v>24</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>4</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>12</v>
+      </c>
+      <c r="AE2">
+        <v>50</v>
+      </c>
+      <c r="AF2">
+        <v>120</v>
+      </c>
+      <c r="AG2">
+        <v>4</v>
+      </c>
+      <c r="AI2">
+        <v>25</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>12</v>
+      </c>
+      <c r="AL2">
         <v>144</v>
       </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2">
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>46</v>
+      </c>
+      <c r="AP2">
         <v>450</v>
       </c>
-      <c r="G2">
-        <v>23.076923076923077</v>
-      </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2">
-        <v>12</v>
-      </c>
-      <c r="J2">
+      <c r="AS2">
+        <v>16</v>
+      </c>
+      <c r="AT2">
         <v>100</v>
       </c>
-      <c r="K2">
-        <v>23.076923076923077</v>
-      </c>
-      <c r="L2">
-        <v>12</v>
-      </c>
-      <c r="M2">
-        <v>46</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="O2">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="P2">
-        <v>25</v>
-      </c>
-      <c r="S2">
-        <v>360</v>
-      </c>
-      <c r="T2">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="W2">
-        <v>9</v>
-      </c>
-      <c r="Y2">
-        <v>4</v>
-      </c>
-      <c r="AA2">
-        <v>4</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>4</v>
-      </c>
-      <c r="AE2">
-        <v>4</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>6</v>
-      </c>
-      <c r="AK2">
-        <v>1</v>
-      </c>
-      <c r="AL2">
-        <v>6</v>
-      </c>
-      <c r="AM2">
-        <v>2</v>
-      </c>
-      <c r="AN2">
-        <v>2</v>
-      </c>
-      <c r="AP2">
-        <v>1</v>
-      </c>
-      <c r="AQ2">
-        <v>4</v>
-      </c>
-      <c r="AR2">
-        <v>1</v>
+      <c r="AU2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="H3">
+      <c r="M3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4">
-        <v>9092.3076923076933</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2065</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4">
+        <v>32</v>
+      </c>
+      <c r="Q4">
+        <v>17</v>
+      </c>
+      <c r="R4">
+        <v>40</v>
+      </c>
+      <c r="S4">
+        <v>152</v>
+      </c>
+      <c r="T4">
+        <v>38</v>
+      </c>
+      <c r="U4">
+        <v>960</v>
+      </c>
+      <c r="V4">
+        <v>3776</v>
+      </c>
+      <c r="W4">
+        <v>120</v>
+      </c>
+      <c r="X4">
+        <v>416</v>
+      </c>
+      <c r="Y4">
+        <v>13</v>
+      </c>
+      <c r="Z4">
+        <v>780</v>
+      </c>
+      <c r="AA4">
+        <v>4</v>
+      </c>
+      <c r="AB4">
+        <v>8</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>2268</v>
+      </c>
+      <c r="AE4">
+        <v>5430</v>
+      </c>
+      <c r="AF4">
+        <v>9456</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>300</v>
+      </c>
+      <c r="AJ4">
+        <v>12</v>
+      </c>
+      <c r="AK4">
+        <v>203</v>
+      </c>
+      <c r="AL4">
         <v>1456</v>
       </c>
-      <c r="E4">
-        <v>5430</v>
-      </c>
-      <c r="F4">
+      <c r="AM4">
+        <v>37</v>
+      </c>
+      <c r="AN4">
+        <v>54</v>
+      </c>
+      <c r="AO4">
+        <v>651</v>
+      </c>
+      <c r="AP4">
         <v>2000</v>
       </c>
-      <c r="G4">
-        <v>3630.7692307692309</v>
-      </c>
-      <c r="H4">
-        <v>2065</v>
-      </c>
-      <c r="I4">
-        <v>2268</v>
-      </c>
-      <c r="J4">
+      <c r="AQ4">
+        <v>193</v>
+      </c>
+      <c r="AR4">
+        <v>170</v>
+      </c>
+      <c r="AS4">
+        <v>232</v>
+      </c>
+      <c r="AT4">
         <v>100</v>
       </c>
-      <c r="K4">
-        <v>930.76923076923083</v>
-      </c>
-      <c r="L4">
-        <v>203</v>
-      </c>
-      <c r="M4">
-        <v>651</v>
-      </c>
-      <c r="N4">
-        <v>780</v>
-      </c>
-      <c r="O4">
-        <v>223.07692307692309</v>
-      </c>
-      <c r="P4">
-        <v>300</v>
-      </c>
-      <c r="Q4">
-        <v>416</v>
-      </c>
-      <c r="R4">
-        <v>157.14285714285714</v>
-      </c>
-      <c r="S4">
-        <v>40</v>
-      </c>
-      <c r="T4">
-        <v>146.15384615384616</v>
-      </c>
-      <c r="U4">
-        <v>193</v>
-      </c>
-      <c r="V4">
-        <v>115.38461538461539</v>
-      </c>
-      <c r="X4">
-        <v>19</v>
-      </c>
-      <c r="Y4">
+      <c r="AU4">
         <v>32</v>
       </c>
-      <c r="Z4">
-        <v>32</v>
-      </c>
-      <c r="AB4">
-        <v>54</v>
-      </c>
-      <c r="AC4">
-        <v>38</v>
-      </c>
-      <c r="AD4">
-        <v>37</v>
-      </c>
-      <c r="AE4">
-        <v>4</v>
-      </c>
-      <c r="AF4">
-        <v>4</v>
-      </c>
-      <c r="AG4">
-        <v>18</v>
-      </c>
-      <c r="AH4">
-        <v>17</v>
-      </c>
-      <c r="AJ4">
-        <v>8</v>
-      </c>
-      <c r="AK4">
-        <v>13</v>
-      </c>
-      <c r="AO4">
-        <v>2</v>
-      </c>
-      <c r="AP4">
-        <v>12</v>
-      </c>
-      <c r="AQ4">
-        <v>3</v>
-      </c>
-      <c r="AR4">
-        <v>2</v>
-      </c>
-      <c r="AT4">
-        <v>1</v>
-      </c>
-      <c r="AU4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
-      <c r="AS5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>4</v>
+      </c>
+      <c r="AL5">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="N6">
+      <c r="Z6">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="AA7">
-        <v>4</v>
-      </c>
-      <c r="AD7">
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>4</v>
+      </c>
+      <c r="AM7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8">
-        <v>15.384615384615385</v>
-      </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>29</v>
+      </c>
+      <c r="M8">
+        <v>18</v>
+      </c>
+      <c r="N8">
+        <v>11</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>30</v>
+      </c>
+      <c r="S8">
+        <v>16</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>40</v>
+      </c>
+      <c r="V8">
+        <v>24</v>
+      </c>
+      <c r="W8">
+        <v>8</v>
+      </c>
+      <c r="X8">
+        <v>8</v>
+      </c>
+      <c r="Z8">
+        <v>8</v>
+      </c>
+      <c r="AD8">
+        <v>12</v>
+      </c>
+      <c r="AE8">
+        <v>30</v>
+      </c>
+      <c r="AF8">
+        <v>16</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>2</v>
+      </c>
+      <c r="AL8">
         <v>64</v>
       </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>16</v>
+      </c>
+      <c r="AP8">
         <v>340</v>
       </c>
-      <c r="G8">
-        <v>23.076923076923077</v>
-      </c>
-      <c r="H8">
-        <v>18</v>
-      </c>
-      <c r="I8">
-        <v>12</v>
-      </c>
-      <c r="J8">
+      <c r="AQ8">
+        <v>2</v>
+      </c>
+      <c r="AR8">
+        <v>31</v>
+      </c>
+      <c r="AS8">
+        <v>15</v>
+      </c>
+      <c r="AT8">
         <v>100</v>
       </c>
-      <c r="K8">
-        <v>38.46153846153846</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>16</v>
-      </c>
-      <c r="N8">
-        <v>8</v>
-      </c>
-      <c r="O8">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="Q8">
-        <v>8</v>
-      </c>
-      <c r="R8">
-        <v>28.571428571428573</v>
-      </c>
-      <c r="S8">
-        <v>30</v>
-      </c>
-      <c r="T8">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="U8">
-        <v>2</v>
-      </c>
-      <c r="V8">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="X8">
-        <v>2</v>
-      </c>
-      <c r="Z8">
-        <v>4</v>
-      </c>
-      <c r="AB8">
-        <v>1</v>
-      </c>
-      <c r="AC8">
-        <v>1</v>
-      </c>
-      <c r="AI8">
-        <v>29</v>
-      </c>
-      <c r="AO8">
-        <v>11</v>
-      </c>
-      <c r="AQ8">
-        <v>1</v>
-      </c>
-      <c r="AS8">
-        <v>1</v>
-      </c>
-      <c r="AT8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="AF9">
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="X10">
+      <c r="O10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="J11">
+      <c r="W11">
+        <v>8</v>
+      </c>
+      <c r="AS11">
+        <v>24</v>
+      </c>
+      <c r="AT11">
         <v>200</v>
       </c>
-      <c r="O11">
-        <v>23.076923076923077</v>
-      </c>
-      <c r="V11">
-        <v>7.6923076923076925</v>
-      </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
+      <c r="Z12">
         <v>12</v>
       </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="AB13">
-        <v>1</v>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="D14">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>3</v>
+      </c>
+      <c r="AI14">
+        <v>25</v>
+      </c>
+      <c r="AL14">
         <v>32</v>
       </c>
-      <c r="F14">
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>2</v>
+      </c>
+      <c r="AO14">
+        <v>9</v>
+      </c>
+      <c r="AP14">
         <v>330</v>
       </c>
-      <c r="J14">
+      <c r="AR14">
+        <v>62</v>
+      </c>
+      <c r="AS14">
+        <v>24</v>
+      </c>
+      <c r="AT14">
         <v>800</v>
       </c>
-      <c r="M14">
-        <v>9</v>
-      </c>
-      <c r="O14">
-        <v>23.076923076923077</v>
-      </c>
-      <c r="P14">
-        <v>25</v>
-      </c>
-      <c r="R14">
-        <v>57.142857142857146</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-      <c r="AB14">
-        <v>2</v>
-      </c>
-      <c r="AC14">
-        <v>2</v>
-      </c>
-      <c r="AD14">
-        <v>1</v>
-      </c>
-      <c r="AO14">
-        <v>1</v>
-      </c>
-      <c r="AQ14">
-        <v>3</v>
-      </c>
-      <c r="AU14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15">
-        <v>46.153846153846153</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="AF15">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
       <c r="G16">
-        <v>146.15384615384616</v>
+        <v>76</v>
+      </c>
+      <c r="H16">
+        <v>220</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
       </c>
       <c r="K16">
-        <v>84.615384615384613</v>
-      </c>
-      <c r="O16">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>88</v>
+      </c>
+      <c r="V16">
+        <v>152</v>
+      </c>
+      <c r="W16">
+        <v>24</v>
+      </c>
+      <c r="X16">
         <v>76</v>
       </c>
-      <c r="V16">
-        <v>23.076923076923077</v>
-      </c>
-      <c r="W16">
-        <v>220</v>
-      </c>
-      <c r="AA16">
-        <v>76</v>
-      </c>
-      <c r="AC16">
-        <v>2</v>
-      </c>
-      <c r="AE16">
-        <v>8</v>
-      </c>
-      <c r="AL16">
-        <v>6</v>
-      </c>
-      <c r="AM16">
-        <v>2</v>
-      </c>
-      <c r="AN16">
-        <v>8</v>
-      </c>
-      <c r="AR16">
-        <v>1</v>
+      <c r="AS16">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="F17">
+      <c r="AP17">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
       </c>
       <c r="C18">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>64</v>
+      </c>
+      <c r="P18">
+        <v>14</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>23</v>
+      </c>
+      <c r="X18">
+        <v>4</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
+      <c r="Z18">
+        <v>28</v>
+      </c>
+      <c r="AA18">
+        <v>16</v>
+      </c>
+      <c r="AC18">
+        <v>3</v>
+      </c>
+      <c r="AF18">
+        <v>8</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>37.5</v>
+      </c>
+      <c r="AK18">
+        <v>359</v>
+      </c>
+      <c r="AL18">
         <v>4352</v>
       </c>
-      <c r="F18">
+      <c r="AO18">
         <v>17</v>
       </c>
-      <c r="H18">
-        <v>16</v>
-      </c>
-      <c r="J18">
+      <c r="AP18">
+        <v>17</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>108</v>
+      </c>
+      <c r="AS18">
+        <v>200</v>
+      </c>
+      <c r="AT18">
         <v>400</v>
       </c>
-      <c r="L18">
-        <v>359</v>
-      </c>
-      <c r="M18">
-        <v>17</v>
-      </c>
-      <c r="N18">
-        <v>28</v>
-      </c>
-      <c r="O18">
-        <v>192.30769230769232</v>
-      </c>
-      <c r="P18">
-        <v>37.5</v>
-      </c>
-      <c r="Q18">
-        <v>4</v>
-      </c>
-      <c r="R18">
-        <v>100</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>64</v>
-      </c>
-      <c r="Z18">
-        <v>14</v>
-      </c>
-      <c r="AC18">
-        <v>23</v>
-      </c>
-      <c r="AF18">
-        <v>16</v>
-      </c>
-      <c r="AG18">
-        <v>8</v>
-      </c>
-      <c r="AH18">
-        <v>1</v>
-      </c>
-      <c r="AK18">
-        <v>2</v>
-      </c>
-      <c r="AL18">
-        <v>4</v>
-      </c>
-      <c r="AO18">
-        <v>5</v>
-      </c>
-      <c r="AT18">
-        <v>1</v>
-      </c>
-      <c r="AU18">
-        <v>3</v>
-      </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
       <c r="O19">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="AD19">
+        <v>4</v>
+      </c>
+      <c r="AS19">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
       </c>
-      <c r="D20">
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>4</v>
+      </c>
+      <c r="AK20">
+        <v>7</v>
+      </c>
+      <c r="AL20">
         <v>28</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>7</v>
-      </c>
-      <c r="Q20">
-        <v>4</v>
-      </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>4</v>
+      <c r="AD21">
+        <v>4</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D22">
+      <c r="M22">
+        <v>25</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>12</v>
+      </c>
+      <c r="S22">
+        <v>16</v>
+      </c>
+      <c r="U22">
+        <v>16</v>
+      </c>
+      <c r="V22">
+        <v>80</v>
+      </c>
+      <c r="W22">
+        <v>16</v>
+      </c>
+      <c r="Z22">
+        <v>4</v>
+      </c>
+      <c r="AI22">
+        <v>12.5</v>
+      </c>
+      <c r="AK22">
+        <v>3</v>
+      </c>
+      <c r="AL22">
         <v>68</v>
       </c>
-      <c r="F22">
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
         <v>11</v>
       </c>
-      <c r="G22">
-        <v>76.92307692307692</v>
-      </c>
-      <c r="H22">
-        <v>25</v>
-      </c>
-      <c r="K22">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>4</v>
-      </c>
-      <c r="O22">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="P22">
-        <v>12.5</v>
-      </c>
-      <c r="T22">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="V22">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="X22">
-        <v>4</v>
-      </c>
-      <c r="Z22">
-        <v>12</v>
+      <c r="AS22">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
       </c>
-      <c r="F23">
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>6</v>
+      </c>
+      <c r="AP23">
         <v>25</v>
       </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="Z23">
-        <v>6</v>
-      </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="U24">
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="C25">
-        <v>246.15384615384616</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>50</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>8</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>4</v>
+      </c>
+      <c r="AB25">
+        <v>4</v>
+      </c>
+      <c r="AD25">
+        <v>16</v>
+      </c>
+      <c r="AE25">
         <v>420</v>
       </c>
-      <c r="F25">
+      <c r="AF25">
+        <v>256</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>25</v>
+      </c>
+      <c r="AL25">
+        <v>4</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>15</v>
+      </c>
+      <c r="AP25">
         <v>31</v>
       </c>
-      <c r="G25">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="H25">
-        <v>50</v>
-      </c>
-      <c r="I25">
-        <v>16</v>
-      </c>
-      <c r="M25">
-        <v>15</v>
-      </c>
-      <c r="N25">
-        <v>4</v>
-      </c>
-      <c r="O25">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="P25">
-        <v>25</v>
-      </c>
-      <c r="Q25">
-        <v>4</v>
-      </c>
-      <c r="U25">
-        <v>5</v>
-      </c>
-      <c r="W25">
-        <v>2</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>4</v>
-      </c>
-      <c r="AA25">
-        <v>2</v>
-      </c>
-      <c r="AB25">
-        <v>1</v>
-      </c>
-      <c r="AD25">
-        <v>1</v>
-      </c>
-      <c r="AE25">
-        <v>8</v>
-      </c>
-      <c r="AJ25">
-        <v>4</v>
-      </c>
-      <c r="AK25">
-        <v>1</v>
-      </c>
-      <c r="AM25">
-        <v>10</v>
-      </c>
-      <c r="AT25">
-        <v>1</v>
+      <c r="AQ25">
+        <v>5</v>
+      </c>
+      <c r="AS25">
+        <v>8</v>
+      </c>
+      <c r="AU25">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
       </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
-      <c r="AK26">
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
       </c>
-      <c r="C27">
-        <v>176.92307692307693</v>
-      </c>
-      <c r="D27">
+      <c r="M27">
+        <v>36</v>
+      </c>
+      <c r="R27">
+        <v>40</v>
+      </c>
+      <c r="V27">
+        <v>24</v>
+      </c>
+      <c r="X27">
+        <v>4</v>
+      </c>
+      <c r="Z27">
+        <v>8</v>
+      </c>
+      <c r="AD27">
+        <v>40</v>
+      </c>
+      <c r="AE27">
+        <v>30</v>
+      </c>
+      <c r="AF27">
+        <v>184</v>
+      </c>
+      <c r="AI27">
+        <v>12.5</v>
+      </c>
+      <c r="AK27">
+        <v>7</v>
+      </c>
+      <c r="AL27">
         <v>52</v>
       </c>
-      <c r="E27">
-        <v>30</v>
-      </c>
-      <c r="F27">
+      <c r="AN27">
+        <v>2</v>
+      </c>
+      <c r="AO27">
+        <v>10</v>
+      </c>
+      <c r="AP27">
         <v>31</v>
       </c>
-      <c r="G27">
-        <v>23.076923076923077</v>
-      </c>
-      <c r="H27">
-        <v>36</v>
-      </c>
-      <c r="I27">
-        <v>40</v>
-      </c>
-      <c r="L27">
-        <v>7</v>
-      </c>
-      <c r="M27">
-        <v>10</v>
-      </c>
-      <c r="N27">
-        <v>8</v>
-      </c>
-      <c r="P27">
-        <v>12.5</v>
-      </c>
-      <c r="Q27">
-        <v>4</v>
-      </c>
-      <c r="R27">
-        <v>14.285714285714286</v>
-      </c>
-      <c r="S27">
-        <v>40</v>
-      </c>
-      <c r="AB27">
-        <v>2</v>
+      <c r="AR27">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B28" t="s">
         <v>69</v>
       </c>
-      <c r="W28">
-        <v>1</v>
-      </c>
-      <c r="AE28">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="J28">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B29" t="s">
         <v>71</v>
       </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="AE29">
         <v>10</v>
       </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="AB29">
+      <c r="AL29">
+        <v>4</v>
+      </c>
+      <c r="AN29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B30" t="s">
         <v>73</v>
       </c>
-      <c r="E30">
+      <c r="AE30">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B31" t="s">
         <v>75</v>
       </c>
-      <c r="D31">
+      <c r="AL31">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
       </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="L32">
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="AK32">
         <v>3</v>
       </c>
-      <c r="X32">
-        <v>2</v>
+      <c r="AL32">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B33" t="s">
         <v>79</v>
       </c>
-      <c r="I33">
-        <v>4</v>
-      </c>
-      <c r="Q33">
-        <v>4</v>
+      <c r="O33">
+        <v>1</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AD33">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B34" t="s">
         <v>81</v>
       </c>
-      <c r="G34">
+      <c r="U34" s="15">
+        <v>61.53846153846154</v>
+      </c>
+      <c r="V34" s="15">
         <v>146.15384615384616</v>
       </c>
-      <c r="K34">
-        <v>61.53846153846154</v>
-      </c>
-      <c r="O34">
+      <c r="X34">
+        <v>4</v>
+      </c>
+      <c r="AR34" s="15">
+        <v>14.285714285714286</v>
+      </c>
+      <c r="AS34" s="15">
         <v>7.6923076923076925</v>
       </c>
-      <c r="Q34">
-        <v>4</v>
-      </c>
-      <c r="R34">
-        <v>14.285714285714286</v>
-      </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B35" t="s">
         <v>83</v>
       </c>
-      <c r="C35">
-        <v>430.76923076923077</v>
-      </c>
-      <c r="D35">
+      <c r="M35">
+        <v>149</v>
+      </c>
+      <c r="O35">
+        <v>6</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>90</v>
+      </c>
+      <c r="U35">
+        <v>32</v>
+      </c>
+      <c r="V35">
+        <v>32</v>
+      </c>
+      <c r="W35">
+        <v>8</v>
+      </c>
+      <c r="Z35">
+        <v>4</v>
+      </c>
+      <c r="AD35">
+        <v>64</v>
+      </c>
+      <c r="AE35">
+        <v>240</v>
+      </c>
+      <c r="AF35">
+        <v>448</v>
+      </c>
+      <c r="AK35">
+        <v>29</v>
+      </c>
+      <c r="AL35">
         <v>360</v>
       </c>
-      <c r="E35">
-        <v>240</v>
-      </c>
-      <c r="F35">
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>11</v>
+      </c>
+      <c r="AO35">
+        <v>28</v>
+      </c>
+      <c r="AP35">
         <v>48</v>
       </c>
-      <c r="G35">
-        <v>30.76923076923077</v>
-      </c>
-      <c r="H35">
-        <v>149</v>
-      </c>
-      <c r="I35">
-        <v>64</v>
-      </c>
-      <c r="K35">
-        <v>30.76923076923077</v>
-      </c>
-      <c r="L35">
-        <v>29</v>
-      </c>
-      <c r="M35">
-        <v>28</v>
-      </c>
-      <c r="N35">
-        <v>4</v>
-      </c>
-      <c r="S35">
-        <v>90</v>
-      </c>
-      <c r="U35">
-        <v>8</v>
-      </c>
-      <c r="V35">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="X35">
-        <v>6</v>
-      </c>
-      <c r="Y35">
-        <v>4</v>
-      </c>
-      <c r="Z35">
-        <v>1</v>
-      </c>
-      <c r="AB35">
-        <v>11</v>
-      </c>
-      <c r="AD35">
-        <v>1</v>
+      <c r="AQ35">
+        <v>8</v>
+      </c>
+      <c r="AU35">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B36" t="s">
         <v>85</v>
       </c>
-      <c r="M36">
+      <c r="AO36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B37" t="s">
         <v>87</v>
       </c>
-      <c r="K37">
-        <v>7.6923076923076925</v>
+      <c r="U37">
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B38" t="s">
         <v>89</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="T38">
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>5</v>
+      </c>
+      <c r="S38" s="13">
         <v>7.6923076923076925</v>
       </c>
-      <c r="X38">
-        <v>1</v>
-      </c>
-      <c r="Z38">
-        <v>5</v>
-      </c>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B39" t="s">
         <v>91</v>
       </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="T39">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="AB39">
-        <v>4</v>
+      <c r="S39">
+        <v>8</v>
+      </c>
+      <c r="AL39">
+        <v>4</v>
+      </c>
+      <c r="AN39">
+        <v>4</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" t="s">
         <v>92</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
       </c>
-      <c r="C40">
-        <v>2215.3846153846152</v>
-      </c>
-      <c r="D40">
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>26</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>6</v>
+      </c>
+      <c r="P40">
+        <v>5</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="S40" s="14">
+        <v>8</v>
+      </c>
+      <c r="T40">
+        <v>5</v>
+      </c>
+      <c r="W40" s="15">
+        <v>8</v>
+      </c>
+      <c r="X40">
+        <v>8</v>
+      </c>
+      <c r="Y40">
+        <v>2</v>
+      </c>
+      <c r="Z40">
+        <v>56</v>
+      </c>
+      <c r="AC40">
+        <v>2</v>
+      </c>
+      <c r="AD40">
+        <v>112</v>
+      </c>
+      <c r="AE40">
+        <v>1150</v>
+      </c>
+      <c r="AF40">
+        <v>2304</v>
+      </c>
+      <c r="AH40">
+        <v>1</v>
+      </c>
+      <c r="AI40">
+        <v>237.5</v>
+      </c>
+      <c r="AJ40">
+        <v>1</v>
+      </c>
+      <c r="AK40">
+        <v>34</v>
+      </c>
+      <c r="AL40">
         <v>388</v>
       </c>
-      <c r="E40">
-        <v>1150</v>
-      </c>
-      <c r="F40">
+      <c r="AM40">
+        <v>8</v>
+      </c>
+      <c r="AN40">
+        <v>3</v>
+      </c>
+      <c r="AO40">
+        <v>112</v>
+      </c>
+      <c r="AP40">
         <v>726</v>
       </c>
-      <c r="H40">
-        <v>26</v>
-      </c>
-      <c r="I40">
-        <v>112</v>
-      </c>
-      <c r="J40">
+      <c r="AQ40">
+        <v>18</v>
+      </c>
+      <c r="AR40">
+        <v>216</v>
+      </c>
+      <c r="AS40">
+        <v>184</v>
+      </c>
+      <c r="AT40">
         <v>100</v>
       </c>
-      <c r="L40">
-        <v>34</v>
-      </c>
-      <c r="M40">
-        <v>112</v>
-      </c>
-      <c r="N40">
-        <v>56</v>
-      </c>
-      <c r="O40">
-        <v>176.92307692307693</v>
-      </c>
-      <c r="P40">
-        <v>237.5</v>
-      </c>
-      <c r="Q40">
-        <v>8</v>
-      </c>
-      <c r="R40">
-        <v>200</v>
-      </c>
-      <c r="T40">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="U40">
-        <v>18</v>
-      </c>
-      <c r="V40">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="X40">
-        <v>6</v>
-      </c>
-      <c r="Y40">
+      <c r="AU40">
         <v>52</v>
       </c>
-      <c r="Z40">
-        <v>5</v>
-      </c>
-      <c r="AB40">
-        <v>3</v>
-      </c>
-      <c r="AC40">
-        <v>5</v>
-      </c>
-      <c r="AD40">
-        <v>8</v>
-      </c>
-      <c r="AG40">
-        <v>2</v>
-      </c>
-      <c r="AH40">
-        <v>2</v>
-      </c>
-      <c r="AK40">
-        <v>2</v>
-      </c>
-      <c r="AO40">
-        <v>1</v>
-      </c>
-      <c r="AP40">
-        <v>1</v>
-      </c>
-      <c r="AT40">
-        <v>1</v>
-      </c>
-      <c r="AU40">
-        <v>2</v>
-      </c>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B41" t="s">
         <v>94</v>
       </c>
-      <c r="C41">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="F41">
+      <c r="V41">
+        <v>8</v>
+      </c>
+      <c r="AF41">
+        <v>8</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AP41">
         <v>9</v>
       </c>
-      <c r="G41">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="11" t="s">
         <v>95</v>
       </c>
       <c r="B42" t="s">
         <v>96</v>
       </c>
-      <c r="K42">
-        <v>15.384615384615385</v>
+      <c r="U42">
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B43" t="s">
         <v>98</v>
       </c>
-      <c r="D43">
+      <c r="AK43">
+        <v>3</v>
+      </c>
+      <c r="AL43">
         <v>40</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>3</v>
+      <c r="AP43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B44" t="s">
         <v>100</v>
       </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B45" t="s">
         <v>102</v>
       </c>
-      <c r="C45">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="D45">
-        <v>4</v>
-      </c>
-      <c r="E45">
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="U45">
+        <v>8</v>
+      </c>
+      <c r="V45">
+        <v>24</v>
+      </c>
+      <c r="W45">
+        <v>8</v>
+      </c>
+      <c r="AD45">
+        <v>4</v>
+      </c>
+      <c r="AE45">
         <v>20</v>
       </c>
-      <c r="G45">
-        <v>23.076923076923077</v>
-      </c>
-      <c r="H45">
-        <v>4</v>
-      </c>
-      <c r="I45">
-        <v>4</v>
-      </c>
-      <c r="K45">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="L45">
-        <v>2</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="V45">
-        <v>7.6923076923076925</v>
+      <c r="AF45">
+        <v>8</v>
+      </c>
+      <c r="AK45">
+        <v>2</v>
+      </c>
+      <c r="AL45">
+        <v>4</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B46" t="s">
         <v>104</v>
       </c>
-      <c r="C46">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="D46">
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>42</v>
+      </c>
+      <c r="Q46">
+        <v>2</v>
+      </c>
+      <c r="U46">
+        <v>16</v>
+      </c>
+      <c r="V46">
+        <v>16</v>
+      </c>
+      <c r="X46">
+        <v>4</v>
+      </c>
+      <c r="Z46">
+        <v>8</v>
+      </c>
+      <c r="AD46">
+        <v>8</v>
+      </c>
+      <c r="AE46">
+        <v>20</v>
+      </c>
+      <c r="AF46">
+        <v>16</v>
+      </c>
+      <c r="AK46">
+        <v>2</v>
+      </c>
+      <c r="AL46">
         <v>56</v>
       </c>
-      <c r="E46">
-        <v>20</v>
-      </c>
-      <c r="G46">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="H46">
-        <v>42</v>
-      </c>
-      <c r="I46">
-        <v>8</v>
-      </c>
-      <c r="K46">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="L46">
-        <v>2</v>
-      </c>
-      <c r="M46">
+      <c r="AO46">
         <v>18</v>
       </c>
-      <c r="N46">
-        <v>8</v>
-      </c>
-      <c r="Q46">
-        <v>4</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="AH46">
-        <v>2</v>
-      </c>
-      <c r="AR46">
+      <c r="AQ46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B47" t="s">
         <v>106</v>
       </c>
-      <c r="D47">
+      <c r="AK47">
+        <v>5</v>
+      </c>
+      <c r="AL47">
         <v>48</v>
       </c>
-      <c r="L47">
-        <v>5</v>
-      </c>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="11" t="s">
         <v>107</v>
       </c>
       <c r="B48" t="s">
         <v>108</v>
       </c>
-      <c r="X48">
-        <v>1</v>
-      </c>
-      <c r="AF48">
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B49" t="s">
         <v>110</v>
       </c>
-      <c r="C49">
-        <v>169.23076923076923</v>
-      </c>
-      <c r="D49">
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>167</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>17</v>
+      </c>
+      <c r="R49">
+        <v>10</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>16</v>
+      </c>
+      <c r="W49">
+        <v>16</v>
+      </c>
+      <c r="X49">
+        <v>12</v>
+      </c>
+      <c r="Z49">
+        <v>4</v>
+      </c>
+      <c r="AD49">
+        <v>4</v>
+      </c>
+      <c r="AE49">
+        <v>120</v>
+      </c>
+      <c r="AF49">
+        <v>176</v>
+      </c>
+      <c r="AK49">
+        <v>13</v>
+      </c>
+      <c r="AL49">
         <v>132</v>
       </c>
-      <c r="E49">
-        <v>120</v>
-      </c>
-      <c r="F49">
+      <c r="AN49">
+        <v>3</v>
+      </c>
+      <c r="AO49">
+        <v>32</v>
+      </c>
+      <c r="AP49">
         <v>83</v>
       </c>
-      <c r="H49">
-        <v>167</v>
-      </c>
-      <c r="I49">
-        <v>4</v>
-      </c>
-      <c r="K49">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="L49">
-        <v>13</v>
-      </c>
-      <c r="M49">
-        <v>32</v>
-      </c>
-      <c r="N49">
-        <v>4</v>
-      </c>
-      <c r="Q49">
-        <v>12</v>
-      </c>
-      <c r="S49">
-        <v>10</v>
-      </c>
-      <c r="U49">
-        <v>1</v>
-      </c>
-      <c r="V49">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="W49">
-        <v>6</v>
-      </c>
-      <c r="X49">
-        <v>17</v>
-      </c>
-      <c r="Y49">
-        <v>4</v>
-      </c>
-      <c r="AA49">
-        <v>2</v>
-      </c>
-      <c r="AB49">
-        <v>3</v>
-      </c>
-      <c r="AC49">
-        <v>1</v>
-      </c>
-      <c r="AE49">
-        <v>4</v>
-      </c>
-      <c r="AN49">
-        <v>8</v>
-      </c>
-      <c r="AO49">
-        <v>1</v>
-      </c>
-      <c r="AR49">
-        <v>1</v>
+      <c r="AQ49">
+        <v>1</v>
+      </c>
+      <c r="AU49">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B50" t="s">
         <v>112</v>
       </c>
-      <c r="H50">
+      <c r="M50">
         <v>3</v>
       </c>
-      <c r="AH50">
+      <c r="Q50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B51" t="s">
         <v>114</v>
       </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
       <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>4</v>
-      </c>
-      <c r="I51">
-        <v>8</v>
-      </c>
-      <c r="AE51">
-        <v>4</v>
-      </c>
-      <c r="AL51">
-        <v>2</v>
-      </c>
-      <c r="AN51">
-        <v>2</v>
-      </c>
-      <c r="AS51">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
+      <c r="AD51">
+        <v>8</v>
+      </c>
+      <c r="AP51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B52" t="s">
         <v>116</v>
       </c>
-      <c r="G52">
-        <v>76.92307692307692</v>
-      </c>
-      <c r="K52">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="AP52">
+      <c r="U52">
+        <v>8</v>
+      </c>
+      <c r="V52">
+        <v>80</v>
+      </c>
+      <c r="AJ52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B53" t="s">
         <v>118</v>
       </c>
-      <c r="D53">
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>6</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>8</v>
+      </c>
+      <c r="W53">
+        <v>16</v>
+      </c>
+      <c r="X53">
+        <v>8</v>
+      </c>
+      <c r="Y53">
+        <v>1</v>
+      </c>
+      <c r="AD53">
+        <v>4</v>
+      </c>
+      <c r="AE53">
+        <v>20</v>
+      </c>
+      <c r="AI53">
+        <v>12.5</v>
+      </c>
+      <c r="AL53">
         <v>40</v>
       </c>
-      <c r="E53">
-        <v>20</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>2</v>
-      </c>
-      <c r="I53">
-        <v>4</v>
-      </c>
-      <c r="K53">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="P53">
-        <v>12.5</v>
-      </c>
-      <c r="Q53">
-        <v>8</v>
-      </c>
-      <c r="U53">
-        <v>1</v>
-      </c>
-      <c r="V53">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="X53">
-        <v>6</v>
-      </c>
-      <c r="AC53">
-        <v>1</v>
-      </c>
-      <c r="AH53">
-        <v>1</v>
-      </c>
-      <c r="AK53">
+      <c r="AP53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="11" t="s">
         <v>119</v>
       </c>
       <c r="B54" t="s">
         <v>120</v>
       </c>
-      <c r="D54">
-        <v>4</v>
-      </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-      <c r="H54">
-        <v>5</v>
-      </c>
-      <c r="N54">
-        <v>4</v>
-      </c>
-      <c r="R54">
-        <v>14.285714285714286</v>
-      </c>
-      <c r="T54">
-        <v>15.384615384615385</v>
+      <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="S54">
+        <v>16</v>
+      </c>
+      <c r="Z54">
+        <v>4</v>
+      </c>
+      <c r="AL54">
+        <v>4</v>
+      </c>
+      <c r="AP54">
+        <v>2</v>
+      </c>
+      <c r="AR54">
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B55" t="s">
         <v>122</v>
       </c>
-      <c r="C55">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="D55">
-        <v>8</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="H55">
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="AF55">
+        <v>8</v>
+      </c>
+      <c r="AL55">
+        <v>8</v>
+      </c>
+      <c r="AP55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B56" t="s">
         <v>124</v>
       </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="X56">
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="AK56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B57" t="s">
         <v>126</v>
       </c>
-      <c r="C57">
-        <v>23.076923076923077</v>
-      </c>
-      <c r="E57">
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>8</v>
+      </c>
+      <c r="K57">
+        <v>6</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>60</v>
+      </c>
+      <c r="P57">
+        <v>2</v>
+      </c>
+      <c r="R57">
+        <v>10</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>8</v>
+      </c>
+      <c r="W57">
+        <v>8</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>8</v>
+      </c>
+      <c r="AB57">
+        <v>4</v>
+      </c>
+      <c r="AD57">
+        <v>8</v>
+      </c>
+      <c r="AE57">
         <v>90</v>
       </c>
-      <c r="F57">
+      <c r="AF57">
+        <v>24</v>
+      </c>
+      <c r="AI57">
+        <v>12.5</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
+        <v>7</v>
+      </c>
+      <c r="AP57">
         <v>28</v>
       </c>
-      <c r="H57">
-        <v>60</v>
-      </c>
-      <c r="I57">
-        <v>8</v>
-      </c>
-      <c r="K57">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="M57">
-        <v>7</v>
-      </c>
-      <c r="N57">
-        <v>8</v>
-      </c>
-      <c r="O57">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="P57">
-        <v>12.5</v>
-      </c>
-      <c r="S57">
-        <v>10</v>
-      </c>
-      <c r="U57">
-        <v>1</v>
-      </c>
-      <c r="V57">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="Z57">
-        <v>2</v>
-      </c>
-      <c r="AB57">
-        <v>1</v>
-      </c>
-      <c r="AC57">
-        <v>1</v>
-      </c>
-      <c r="AE57">
-        <v>8</v>
-      </c>
-      <c r="AJ57">
-        <v>4</v>
-      </c>
-      <c r="AK57">
-        <v>1</v>
-      </c>
-      <c r="AM57">
-        <v>6</v>
-      </c>
-      <c r="AR57">
+      <c r="AQ57">
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B58" t="s">
         <v>128</v>
       </c>
-      <c r="W58">
-        <v>2</v>
-      </c>
-      <c r="AL58">
-        <v>4</v>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B59" t="s">
         <v>130</v>
       </c>
-      <c r="C59">
-        <v>61.53846153846154</v>
-      </c>
-      <c r="D59">
+      <c r="J59">
+        <v>8</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>51</v>
+      </c>
+      <c r="O59">
+        <v>57</v>
+      </c>
+      <c r="P59">
+        <v>25</v>
+      </c>
+      <c r="Q59">
+        <v>3</v>
+      </c>
+      <c r="S59">
+        <v>16</v>
+      </c>
+      <c r="T59">
+        <v>6</v>
+      </c>
+      <c r="U59">
+        <v>16</v>
+      </c>
+      <c r="W59">
+        <v>16</v>
+      </c>
+      <c r="X59">
+        <v>20</v>
+      </c>
+      <c r="Y59">
+        <v>2</v>
+      </c>
+      <c r="Z59">
+        <v>4</v>
+      </c>
+      <c r="AA59">
+        <v>10</v>
+      </c>
+      <c r="AC59">
+        <v>2</v>
+      </c>
+      <c r="AD59">
+        <v>36</v>
+      </c>
+      <c r="AE59">
+        <v>50</v>
+      </c>
+      <c r="AF59">
+        <v>64</v>
+      </c>
+      <c r="AI59">
+        <v>187.5</v>
+      </c>
+      <c r="AJ59">
+        <v>1</v>
+      </c>
+      <c r="AK59">
+        <v>405</v>
+      </c>
+      <c r="AL59">
         <v>1980</v>
       </c>
-      <c r="E59">
-        <v>50</v>
-      </c>
-      <c r="F59">
+      <c r="AM59">
+        <v>1</v>
+      </c>
+      <c r="AN59">
+        <v>3</v>
+      </c>
+      <c r="AO59">
+        <v>38</v>
+      </c>
+      <c r="AP59">
         <v>136</v>
       </c>
-      <c r="H59">
-        <v>51</v>
-      </c>
-      <c r="I59">
-        <v>36</v>
-      </c>
-      <c r="K59">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="L59">
-        <v>405</v>
-      </c>
-      <c r="M59">
-        <v>38</v>
-      </c>
-      <c r="N59">
-        <v>4</v>
-      </c>
-      <c r="O59">
-        <v>61.53846153846154</v>
-      </c>
-      <c r="P59">
-        <v>187.5</v>
-      </c>
-      <c r="Q59">
-        <v>20</v>
-      </c>
-      <c r="R59">
-        <v>14.285714285714286</v>
-      </c>
-      <c r="T59">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="U59">
-        <v>8</v>
-      </c>
-      <c r="V59">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="X59">
-        <v>57</v>
-      </c>
-      <c r="Y59">
-        <v>4</v>
-      </c>
-      <c r="Z59">
-        <v>25</v>
-      </c>
-      <c r="AB59">
-        <v>3</v>
-      </c>
-      <c r="AC59">
-        <v>6</v>
-      </c>
-      <c r="AD59">
-        <v>1</v>
-      </c>
-      <c r="AE59">
-        <v>8</v>
-      </c>
-      <c r="AF59">
-        <v>10</v>
-      </c>
-      <c r="AH59">
-        <v>3</v>
-      </c>
-      <c r="AK59">
-        <v>2</v>
-      </c>
-      <c r="AM59">
-        <v>2</v>
-      </c>
-      <c r="AP59">
-        <v>1</v>
+      <c r="AQ59">
+        <v>8</v>
       </c>
       <c r="AR59">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="AS59">
+        <v>64</v>
       </c>
       <c r="AU59">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="11" t="s">
         <v>131</v>
       </c>
       <c r="B60" t="s">
         <v>132</v>
       </c>
-      <c r="W60">
-        <v>4</v>
-      </c>
-      <c r="AA60">
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="G60">
         <v>12</v>
       </c>
-      <c r="AS60">
+      <c r="H60">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="11" t="s">
         <v>133</v>
       </c>
       <c r="B61" t="s">
         <v>134</v>
       </c>
-      <c r="D61">
-        <v>4</v>
-      </c>
-      <c r="AA61">
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
         <v>20</v>
       </c>
       <c r="AL61">
-        <v>2</v>
-      </c>
-      <c r="AN61">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="11" t="s">
         <v>135</v>
       </c>
       <c r="B62" t="s">
         <v>136</v>
       </c>
-      <c r="D62">
-        <v>4</v>
-      </c>
-      <c r="F62">
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>8</v>
+      </c>
+      <c r="X62">
+        <v>36</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+      <c r="AL62">
+        <v>4</v>
+      </c>
+      <c r="AO62">
+        <v>2</v>
+      </c>
+      <c r="AP62">
         <v>7</v>
       </c>
-      <c r="H62">
-        <v>2</v>
-      </c>
-      <c r="K62">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>2</v>
-      </c>
-      <c r="Q62">
-        <v>36</v>
-      </c>
-      <c r="AH62">
-        <v>1</v>
-      </c>
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="11" t="s">
         <v>137</v>
       </c>
       <c r="B63" t="s">
         <v>138</v>
       </c>
-      <c r="S63">
+      <c r="R63">
         <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="11" t="s">
         <v>139</v>
       </c>
       <c r="B64" t="s">
         <v>140</v>
       </c>
-      <c r="F64">
+      <c r="AP64">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="12" t="s">
         <v>141</v>
       </c>
       <c r="B65" t="s">
         <v>142</v>
       </c>
-      <c r="G65">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="J65">
+      <c r="V65">
+        <v>8</v>
+      </c>
+      <c r="AR65">
+        <v>16</v>
+      </c>
+      <c r="AT65">
         <v>200</v>
       </c>
-      <c r="R65">
-        <v>14.285714285714286</v>
-      </c>
     </row>
     <row r="66" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B66" t="s">
         <v>144</v>
       </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>15.384615384615385</v>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>16</v>
+      </c>
+      <c r="V66">
+        <v>16</v>
+      </c>
+      <c r="AP66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="11" t="s">
         <v>145</v>
       </c>
       <c r="B67" t="s">
         <v>146</v>
       </c>
-      <c r="F67">
+      <c r="AP67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="11" t="s">
         <v>147</v>
       </c>
       <c r="B68" t="s">
         <v>148</v>
       </c>
-      <c r="K68">
-        <v>7.6923076923076925</v>
+      <c r="U68">
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="11" t="s">
         <v>149</v>
       </c>
       <c r="B69" t="s">
         <v>150</v>
       </c>
-      <c r="C69">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="H69">
-        <v>2</v>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="AF69">
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="11" t="s">
         <v>151</v>
       </c>
       <c r="B70" t="s">
         <v>152</v>
       </c>
-      <c r="X70">
+      <c r="O70">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="11" t="s">
         <v>153</v>
       </c>
       <c r="B71" t="s">
         <v>154</v>
       </c>
-      <c r="AH71">
+      <c r="Q71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="11" t="s">
         <v>155</v>
       </c>
       <c r="B72" t="s">
         <v>156</v>
       </c>
-      <c r="G72">
-        <v>7.6923076923076925</v>
+      <c r="V72">
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="11" t="s">
         <v>157</v>
       </c>
       <c r="B73" t="s">
         <v>158</v>
       </c>
       <c r="C73">
-        <v>153.84615384615384</v>
-      </c>
-      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>98</v>
+      </c>
+      <c r="O73">
+        <v>4</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="R73">
+        <v>10</v>
+      </c>
+      <c r="S73">
+        <v>24</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
+        <v>40</v>
+      </c>
+      <c r="V73">
+        <v>40</v>
+      </c>
+      <c r="X73">
+        <v>128</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+      <c r="Z73">
+        <v>116</v>
+      </c>
+      <c r="AA73">
+        <v>2</v>
+      </c>
+      <c r="AC73">
+        <v>1</v>
+      </c>
+      <c r="AD73">
+        <v>20</v>
+      </c>
+      <c r="AE73">
+        <v>60</v>
+      </c>
+      <c r="AF73">
+        <v>160</v>
+      </c>
+      <c r="AJ73">
+        <v>1</v>
+      </c>
+      <c r="AK73">
+        <v>56</v>
+      </c>
+      <c r="AL73">
         <v>1208</v>
       </c>
-      <c r="E73">
-        <v>60</v>
-      </c>
-      <c r="F73">
+      <c r="AM73">
+        <v>3</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>49</v>
+      </c>
+      <c r="AP73">
         <v>85</v>
       </c>
-      <c r="G73">
-        <v>38.46153846153846</v>
-      </c>
-      <c r="H73">
-        <v>98</v>
-      </c>
-      <c r="I73">
-        <v>20</v>
-      </c>
-      <c r="J73">
+      <c r="AQ73">
+        <v>13</v>
+      </c>
+      <c r="AR73">
+        <v>47</v>
+      </c>
+      <c r="AS73">
+        <v>72</v>
+      </c>
+      <c r="AT73">
         <v>100</v>
       </c>
-      <c r="K73">
-        <v>38.46153846153846</v>
-      </c>
-      <c r="L73">
-        <v>56</v>
-      </c>
-      <c r="M73">
-        <v>49</v>
-      </c>
-      <c r="N73">
-        <v>116</v>
-      </c>
-      <c r="O73">
-        <v>69.230769230769226</v>
-      </c>
-      <c r="Q73">
-        <v>128</v>
-      </c>
-      <c r="R73">
-        <v>42.857142857142861</v>
-      </c>
-      <c r="S73">
-        <v>10</v>
-      </c>
-      <c r="T73">
-        <v>23.076923076923077</v>
-      </c>
-      <c r="U73">
-        <v>13</v>
-      </c>
-      <c r="X73">
-        <v>4</v>
-      </c>
-      <c r="Y73">
+      <c r="AU73">
         <v>16</v>
       </c>
-      <c r="AB73">
-        <v>1</v>
-      </c>
-      <c r="AC73">
-        <v>3</v>
-      </c>
-      <c r="AD73">
-        <v>3</v>
-      </c>
-      <c r="AF73">
-        <v>2</v>
-      </c>
-      <c r="AH73">
-        <v>2</v>
-      </c>
-      <c r="AK73">
-        <v>1</v>
-      </c>
-      <c r="AL73">
-        <v>2</v>
-      </c>
-      <c r="AP73">
-        <v>1</v>
-      </c>
-      <c r="AU73">
-        <v>1</v>
-      </c>
     </row>
     <row r="74" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="11" t="s">
         <v>159</v>
       </c>
       <c r="B74" t="s">
         <v>160</v>
       </c>
-      <c r="C74">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>4</v>
-      </c>
-      <c r="Q74">
-        <v>4</v>
-      </c>
-      <c r="U74">
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>4</v>
+      </c>
+      <c r="AD74">
+        <v>4</v>
+      </c>
+      <c r="AF74" s="15">
+        <v>8</v>
+      </c>
+      <c r="AP74">
+        <v>1</v>
+      </c>
+      <c r="AQ74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="11" t="s">
         <v>161</v>
       </c>
       <c r="B75" t="s">
         <v>162</v>
       </c>
-      <c r="C75">
-        <v>130.76923076923077</v>
-      </c>
-      <c r="D75">
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>13</v>
+      </c>
+      <c r="S75">
+        <v>8</v>
+      </c>
+      <c r="U75">
+        <v>8</v>
+      </c>
+      <c r="AB75">
+        <v>4</v>
+      </c>
+      <c r="AD75">
+        <v>4</v>
+      </c>
+      <c r="AE75">
+        <v>130</v>
+      </c>
+      <c r="AF75">
+        <v>136</v>
+      </c>
+      <c r="AK75">
+        <v>45</v>
+      </c>
+      <c r="AL75">
         <v>96</v>
       </c>
-      <c r="E75">
-        <v>130</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>4</v>
-      </c>
-      <c r="K75">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="L75">
-        <v>45</v>
-      </c>
-      <c r="T75">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="X75">
-        <v>13</v>
-      </c>
-      <c r="Y75">
-        <v>4</v>
-      </c>
-      <c r="AJ75">
-        <v>4</v>
-      </c>
-      <c r="AR75">
-        <v>1</v>
+      <c r="AP75">
+        <v>1</v>
+      </c>
+      <c r="AU75">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="11" t="s">
         <v>163</v>
       </c>
       <c r="B76" t="s">
         <v>164</v>
       </c>
-      <c r="F76">
-        <v>2</v>
-      </c>
-      <c r="I76">
-        <v>4</v>
-      </c>
-      <c r="L76">
-        <v>2</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
+      <c r="AD76">
+        <v>4</v>
+      </c>
+      <c r="AK76">
+        <v>2</v>
+      </c>
+      <c r="AO76">
+        <v>1</v>
+      </c>
+      <c r="AP76">
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="11" t="s">
         <v>165</v>
       </c>
       <c r="B77" t="s">
         <v>166</v>
       </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>4</v>
-      </c>
-      <c r="O77">
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="Y77">
-        <v>4</v>
-      </c>
-      <c r="AC77">
-        <v>2</v>
-      </c>
-      <c r="AJ77">
+      <c r="T77">
+        <v>2</v>
+      </c>
+      <c r="AB77">
+        <v>4</v>
+      </c>
+      <c r="AD77">
+        <v>4</v>
+      </c>
+      <c r="AP77">
+        <v>1</v>
+      </c>
+      <c r="AS77">
+        <v>8</v>
+      </c>
+      <c r="AU77">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="11" t="s">
         <v>167</v>
       </c>
       <c r="B78" t="s">
         <v>168</v>
       </c>
-      <c r="D78">
+      <c r="AL78">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="11" t="s">
         <v>169</v>
       </c>
       <c r="B79" t="s">
         <v>170</v>
       </c>
-      <c r="C79">
-        <v>207.69230769230771</v>
-      </c>
-      <c r="D79">
-        <v>16</v>
-      </c>
-      <c r="E79">
-        <v>260</v>
-      </c>
-      <c r="F79">
-        <v>63</v>
-      </c>
-      <c r="H79">
-        <v>24</v>
-      </c>
-      <c r="I79">
-        <v>104</v>
-      </c>
-      <c r="J79">
-        <v>200</v>
-      </c>
       <c r="M79">
         <v>24</v>
       </c>
-      <c r="N79">
-        <v>4</v>
-      </c>
-      <c r="O79">
-        <v>38.46153846153846</v>
+      <c r="P79">
+        <v>8</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
       </c>
       <c r="R79">
-        <v>57.142857142857146</v>
-      </c>
-      <c r="S79">
         <v>40</v>
       </c>
-      <c r="U79">
+      <c r="T79">
+        <v>2</v>
+      </c>
+      <c r="Y79">
+        <v>2</v>
+      </c>
+      <c r="Z79">
+        <v>4</v>
+      </c>
+      <c r="AA79">
+        <v>1</v>
+      </c>
+      <c r="AB79">
+        <v>4</v>
+      </c>
+      <c r="AD79">
+        <v>104</v>
+      </c>
+      <c r="AE79">
+        <v>260</v>
+      </c>
+      <c r="AF79">
+        <v>216</v>
+      </c>
+      <c r="AG79">
+        <v>1</v>
+      </c>
+      <c r="AH79">
+        <v>4</v>
+      </c>
+      <c r="AL79">
+        <v>16</v>
+      </c>
+      <c r="AM79">
+        <v>1</v>
+      </c>
+      <c r="AN79">
+        <v>4</v>
+      </c>
+      <c r="AO79">
+        <v>24</v>
+      </c>
+      <c r="AP79">
+        <v>63</v>
+      </c>
+      <c r="AQ79">
         <v>3</v>
       </c>
-      <c r="Y79">
+      <c r="AR79">
+        <v>62</v>
+      </c>
+      <c r="AS79">
+        <v>40</v>
+      </c>
+      <c r="AT79">
+        <v>200</v>
+      </c>
+      <c r="AU79">
         <v>20</v>
       </c>
-      <c r="Z79">
-        <v>8</v>
-      </c>
-      <c r="AB79">
-        <v>4</v>
-      </c>
-      <c r="AC79">
-        <v>2</v>
-      </c>
-      <c r="AD79">
-        <v>1</v>
-      </c>
-      <c r="AF79">
-        <v>1</v>
-      </c>
-      <c r="AH79">
-        <v>1</v>
-      </c>
-      <c r="AJ79">
-        <v>4</v>
-      </c>
-      <c r="AK79">
-        <v>2</v>
-      </c>
-      <c r="AQ79">
-        <v>1</v>
-      </c>
-      <c r="AT79">
-        <v>4</v>
-      </c>
     </row>
     <row r="80" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="11" t="s">
         <v>171</v>
       </c>
       <c r="B80" t="s">
         <v>172</v>
       </c>
-      <c r="S80">
+      <c r="R80">
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A81" s="11" t="s">
         <v>173</v>
       </c>
       <c r="B81" t="s">
         <v>174</v>
       </c>
-      <c r="H81">
-        <v>2</v>
-      </c>
       <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="P81">
+        <v>6</v>
+      </c>
+      <c r="AH81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>3</v>
       </c>
-      <c r="Z81">
-        <v>6</v>
-      </c>
-      <c r="AT81">
-        <v>1</v>
+    </row>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="S82">
+        <f>SUM(S2:S81)</f>
+        <v>279.69230769230768</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="C1:AU81">
+    <sortCondition ref="C1:AU1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
